--- a/test/BOW_table.xlsx
+++ b/test/BOW_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pdf-processor\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOTNETPROJECTS\pdf-processor\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE4CD09C-0DDA-4F49-BA73-897AD8E51236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72FA010-1FE7-4EC0-9854-D4B6BF17A46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="2670" windowWidth="24360" windowHeight="21600" xr2:uid="{2386A082-1895-40B0-AC1F-1E30866CC76B}"/>
+    <workbookView xWindow="19200" yWindow="2100" windowWidth="28905" windowHeight="19140" xr2:uid="{2386A082-1895-40B0-AC1F-1E30866CC76B}"/>
   </bookViews>
   <sheets>
     <sheet name="BOW_table" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +741,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -902,7 +908,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -911,6 +917,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1288,11 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96269EE9-111C-4E82-A20B-C9AA298F15E1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="E715" sqref="E715:F715"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1385,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -1423,17 +1431,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>134.39569082031201</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>489.56</v>
       </c>
       <c r="E4" s="1">
@@ -1461,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1474,10 +1482,10 @@
       <c r="D5" s="1">
         <v>489.56</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>165.37167271328099</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>495.29605624999999</v>
       </c>
       <c r="G5" s="1">
@@ -1499,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1575,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>13</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>14</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1689,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1755,7 +1763,7 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="1">
@@ -1793,7 +1801,7 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="1">
@@ -1803,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1841,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>895</v>
       </c>
@@ -1876,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>24</v>
       </c>
@@ -1952,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2028,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2066,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>26</v>
       </c>
@@ -2104,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>28</v>
       </c>
@@ -2180,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -2218,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2332,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>896</v>
       </c>
@@ -2405,7 +2413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2443,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2557,7 +2565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2595,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40</v>
       </c>
@@ -2633,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>41</v>
       </c>
@@ -2671,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2747,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2861,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>897</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2972,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>52</v>
       </c>
@@ -3010,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3048,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3086,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>54</v>
       </c>
@@ -3162,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>55</v>
       </c>
@@ -3200,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>56</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3276,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3390,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>49</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>898</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3501,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>66</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3653,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>68</v>
       </c>
@@ -3691,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>69</v>
       </c>
@@ -3729,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>67</v>
       </c>
@@ -3767,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -3919,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>899</v>
       </c>
@@ -3954,7 +3962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3992,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>79</v>
       </c>
@@ -4030,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4144,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>81</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>82</v>
       </c>
@@ -4220,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>80</v>
       </c>
@@ -4258,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4372,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>900</v>
       </c>
@@ -4445,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4483,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>92</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4559,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4597,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4635,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>94</v>
       </c>
@@ -4673,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>95</v>
       </c>
@@ -4711,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>93</v>
       </c>
@@ -4749,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4863,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>89</v>
       </c>
@@ -4901,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>901</v>
       </c>
@@ -4936,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4974,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>105</v>
       </c>
@@ -5012,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5050,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5088,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>107</v>
       </c>
@@ -5164,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>108</v>
       </c>
@@ -5202,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>106</v>
       </c>
@@ -5240,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5354,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>102</v>
       </c>
@@ -5392,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>902</v>
       </c>
@@ -5427,7 +5435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5465,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>118</v>
       </c>
@@ -5503,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5541,7 +5549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5579,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5617,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>120</v>
       </c>
@@ -5655,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>121</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>119</v>
       </c>
@@ -5731,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5845,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>115</v>
       </c>
@@ -5883,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>903</v>
       </c>
@@ -5918,7 +5926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5956,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>131</v>
       </c>
@@ -5994,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6070,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6108,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>133</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>132</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -6374,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>904</v>
       </c>
@@ -6409,7 +6417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6447,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>144</v>
       </c>
@@ -6485,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6523,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>146</v>
       </c>
@@ -6637,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>147</v>
       </c>
@@ -6675,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>148</v>
       </c>
@@ -6713,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>145</v>
       </c>
@@ -6751,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6865,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>141</v>
       </c>
@@ -6903,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>905</v>
       </c>
@@ -6938,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6976,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>158</v>
       </c>
@@ -7014,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7052,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7090,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>160</v>
       </c>
@@ -7166,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>161</v>
       </c>
@@ -7204,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>162</v>
       </c>
@@ -7242,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>159</v>
       </c>
@@ -7280,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7394,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>155</v>
       </c>
@@ -7432,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>906</v>
       </c>
@@ -7467,7 +7475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -7505,7 +7513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>172</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7581,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7619,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7657,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>174</v>
       </c>
@@ -7695,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>175</v>
       </c>
@@ -7733,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>176</v>
       </c>
@@ -7771,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>173</v>
       </c>
@@ -7809,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7923,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>169</v>
       </c>
@@ -7961,7 +7969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>907</v>
       </c>
@@ -7996,7 +8004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -8034,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>186</v>
       </c>
@@ -8072,17 +8080,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="3">
         <v>134.39753466796901</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="4">
         <v>99.093999999999994</v>
       </c>
       <c r="E180" s="1">
@@ -8110,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -8123,10 +8131,10 @@
       <c r="D181" s="1">
         <v>99.093999999999994</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="3">
         <v>170.87078933984401</v>
       </c>
-      <c r="F181" s="1">
+      <c r="F181" s="4">
         <v>104.847234375</v>
       </c>
       <c r="G181" s="1">
@@ -8148,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8186,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>188</v>
       </c>
@@ -8224,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>189</v>
       </c>
@@ -8262,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>190</v>
       </c>
@@ -8300,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>187</v>
       </c>
@@ -8338,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -8383,10 +8391,10 @@
       <c r="B188" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="3">
         <v>272.00753466796903</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="4">
         <v>99.093999999999994</v>
       </c>
       <c r="E188" s="1">
@@ -8427,10 +8435,10 @@
       <c r="D189" s="1">
         <v>98.996288818359403</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="4">
         <v>308.49251468164101</v>
       </c>
-      <c r="F189" s="1">
+      <c r="F189" s="4">
         <v>104.847234375</v>
       </c>
       <c r="G189" s="1">
@@ -8452,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>183</v>
       </c>
@@ -8490,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>908</v>
       </c>
@@ -8525,7 +8533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -8563,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>200</v>
       </c>
@@ -8601,17 +8609,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="3">
         <v>134.39753466796901</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="4">
         <v>69.055999999999997</v>
       </c>
       <c r="E194" s="1">
@@ -8639,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -8652,10 +8660,10 @@
       <c r="D195" s="1">
         <v>69.055999999999997</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="3">
         <v>170.87078933984401</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="4">
         <v>74.809234375000003</v>
       </c>
       <c r="G195" s="1">
@@ -8677,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -8715,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>202</v>
       </c>
@@ -8753,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>203</v>
       </c>
@@ -8791,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>204</v>
       </c>
@@ -8829,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>201</v>
       </c>
@@ -8867,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8912,10 +8920,10 @@
       <c r="B202" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="3">
         <v>272.00753466796903</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="4">
         <v>69.055999999999997</v>
       </c>
       <c r="E202" s="1">
@@ -8956,10 +8964,10 @@
       <c r="D203" s="1">
         <v>68.958288818359406</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="3">
         <v>308.49251468164101</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="4">
         <v>74.809234375000003</v>
       </c>
       <c r="G203" s="1">
@@ -8981,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>197</v>
       </c>
@@ -9019,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>909</v>
       </c>
@@ -9054,7 +9062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -9092,7 +9100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>214</v>
       </c>
@@ -9130,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9168,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9206,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9244,7 +9252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>216</v>
       </c>
@@ -9282,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>217</v>
       </c>
@@ -9320,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>218</v>
       </c>
@@ -9358,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>215</v>
       </c>
@@ -9396,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9510,7 +9518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>211</v>
       </c>
@@ -9548,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>910</v>
       </c>
@@ -9583,7 +9591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -9621,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>228</v>
       </c>
@@ -9659,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -9697,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9735,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -9773,7 +9781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>230</v>
       </c>
@@ -9811,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>231</v>
       </c>
@@ -9849,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>232</v>
       </c>
@@ -9887,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>229</v>
       </c>
@@ -9925,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10039,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>225</v>
       </c>
@@ -10077,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>911</v>
       </c>
@@ -10112,7 +10120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -10150,7 +10158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>242</v>
       </c>
@@ -10188,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10226,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10264,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10302,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>244</v>
       </c>
@@ -10340,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>245</v>
       </c>
@@ -10378,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>246</v>
       </c>
@@ -10416,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>243</v>
       </c>
@@ -10454,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10568,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>239</v>
       </c>
@@ -10606,7 +10614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>912</v>
       </c>
@@ -10641,7 +10649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -10679,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>256</v>
       </c>
@@ -10717,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10755,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10793,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10831,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>258</v>
       </c>
@@ -10869,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>259</v>
       </c>
@@ -10907,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>260</v>
       </c>
@@ -10945,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>257</v>
       </c>
@@ -10983,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -11097,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>253</v>
       </c>
@@ -11135,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>913</v>
       </c>
@@ -11170,7 +11178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -11208,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>271</v>
       </c>
@@ -11246,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -11284,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -11322,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -11360,7 +11368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>273</v>
       </c>
@@ -11398,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>274</v>
       </c>
@@ -11436,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>275</v>
       </c>
@@ -11474,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>272</v>
       </c>
@@ -11512,7 +11520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -11664,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>268</v>
       </c>
@@ -11702,7 +11710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>914</v>
       </c>
@@ -11737,7 +11745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -11775,7 +11783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>285</v>
       </c>
@@ -11813,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -11851,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -11889,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -11927,7 +11935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>287</v>
       </c>
@@ -11965,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>288</v>
       </c>
@@ -12003,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>289</v>
       </c>
@@ -12041,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>286</v>
       </c>
@@ -12079,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12193,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>282</v>
       </c>
@@ -12231,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>915</v>
       </c>
@@ -12266,7 +12274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -12304,7 +12312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>299</v>
       </c>
@@ -12342,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -12380,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -12418,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -12456,7 +12464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>301</v>
       </c>
@@ -12494,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>302</v>
       </c>
@@ -12532,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>303</v>
       </c>
@@ -12570,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>300</v>
       </c>
@@ -12608,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -12722,7 +12730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>296</v>
       </c>
@@ -12760,7 +12768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>916</v>
       </c>
@@ -12795,7 +12803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -12833,7 +12841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>313</v>
       </c>
@@ -12871,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -12909,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -12947,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -12985,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>315</v>
       </c>
@@ -13023,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>316</v>
       </c>
@@ -13061,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>317</v>
       </c>
@@ -13099,7 +13107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>314</v>
       </c>
@@ -13137,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -13251,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>310</v>
       </c>
@@ -13289,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>917</v>
       </c>
@@ -13324,7 +13332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -13362,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>327</v>
       </c>
@@ -13400,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -13438,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -13476,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -13514,7 +13522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>329</v>
       </c>
@@ -13552,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>330</v>
       </c>
@@ -13590,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>331</v>
       </c>
@@ -13628,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>328</v>
       </c>
@@ -13666,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -13780,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>324</v>
       </c>
@@ -13818,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>918</v>
       </c>
@@ -13853,7 +13861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -13891,7 +13899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>341</v>
       </c>
@@ -13929,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -13967,7 +13975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -14005,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -14043,7 +14051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>343</v>
       </c>
@@ -14081,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>344</v>
       </c>
@@ -14119,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>345</v>
       </c>
@@ -14157,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>342</v>
       </c>
@@ -14195,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -14309,7 +14317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>338</v>
       </c>
@@ -14347,7 +14355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>919</v>
       </c>
@@ -14382,7 +14390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -14420,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>355</v>
       </c>
@@ -14458,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -14496,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -14534,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -14572,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>357</v>
       </c>
@@ -14610,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>358</v>
       </c>
@@ -14648,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>359</v>
       </c>
@@ -14686,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>356</v>
       </c>
@@ -14724,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -14838,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>352</v>
       </c>
@@ -14876,7 +14884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>920</v>
       </c>
@@ -14911,7 +14919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -14949,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>369</v>
       </c>
@@ -14987,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -15025,7 +15033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -15063,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -15101,7 +15109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>371</v>
       </c>
@@ -15139,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>372</v>
       </c>
@@ -15177,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>373</v>
       </c>
@@ -15215,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>370</v>
       </c>
@@ -15253,7 +15261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -15367,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>366</v>
       </c>
@@ -15405,7 +15413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>921</v>
       </c>
@@ -15440,7 +15448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -15478,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>383</v>
       </c>
@@ -15516,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -15554,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -15592,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -15630,7 +15638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>385</v>
       </c>
@@ -15668,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>386</v>
       </c>
@@ -15706,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>387</v>
       </c>
@@ -15744,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>384</v>
       </c>
@@ -15782,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -15896,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>380</v>
       </c>
@@ -15934,7 +15942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>922</v>
       </c>
@@ -15969,7 +15977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -16007,7 +16015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>397</v>
       </c>
@@ -16045,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -16083,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -16121,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -16159,7 +16167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>399</v>
       </c>
@@ -16197,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>400</v>
       </c>
@@ -16235,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>401</v>
       </c>
@@ -16273,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>398</v>
       </c>
@@ -16311,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -16425,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>394</v>
       </c>
@@ -16463,7 +16471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>923</v>
       </c>
@@ -16498,7 +16506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -16536,7 +16544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>411</v>
       </c>
@@ -16574,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -16612,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -16650,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -16688,7 +16696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>413</v>
       </c>
@@ -16726,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>414</v>
       </c>
@@ -16764,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>412</v>
       </c>
@@ -16802,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -16916,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>408</v>
       </c>
@@ -16954,7 +16962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>924</v>
       </c>
@@ -16989,7 +16997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -17027,7 +17035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>424</v>
       </c>
@@ -17065,7 +17073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -17103,7 +17111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -17141,7 +17149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -17179,7 +17187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>426</v>
       </c>
@@ -17217,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>427</v>
       </c>
@@ -17255,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>428</v>
       </c>
@@ -17293,7 +17301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>425</v>
       </c>
@@ -17331,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -17445,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>421</v>
       </c>
@@ -17483,7 +17491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>925</v>
       </c>
@@ -17518,7 +17526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -17556,7 +17564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>438</v>
       </c>
@@ -17594,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -17632,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -17670,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -17708,7 +17716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>440</v>
       </c>
@@ -17746,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>441</v>
       </c>
@@ -17784,7 +17792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>442</v>
       </c>
@@ -17822,7 +17830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>439</v>
       </c>
@@ -17860,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -17974,7 +17982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>435</v>
       </c>
@@ -18012,7 +18020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>926</v>
       </c>
@@ -18047,7 +18055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -18085,7 +18093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>452</v>
       </c>
@@ -18123,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -18161,7 +18169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -18199,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -18237,7 +18245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>454</v>
       </c>
@@ -18275,7 +18283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>455</v>
       </c>
@@ -18313,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>456</v>
       </c>
@@ -18351,7 +18359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>453</v>
       </c>
@@ -18389,7 +18397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -18503,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>449</v>
       </c>
@@ -18541,7 +18549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>927</v>
       </c>
@@ -18576,7 +18584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -18614,7 +18622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>466</v>
       </c>
@@ -18652,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -18690,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -18728,7 +18736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -18766,7 +18774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>468</v>
       </c>
@@ -18804,7 +18812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>469</v>
       </c>
@@ -18842,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>470</v>
       </c>
@@ -18880,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>467</v>
       </c>
@@ -18918,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -19032,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>463</v>
       </c>
@@ -19070,7 +19078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>928</v>
       </c>
@@ -19105,7 +19113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -19143,7 +19151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>480</v>
       </c>
@@ -19181,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -19219,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -19257,7 +19265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -19295,7 +19303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>482</v>
       </c>
@@ -19333,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>483</v>
       </c>
@@ -19371,7 +19379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>484</v>
       </c>
@@ -19409,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>481</v>
       </c>
@@ -19447,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -19561,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>477</v>
       </c>
@@ -19599,7 +19607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>929</v>
       </c>
@@ -19634,7 +19642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -19672,7 +19680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>494</v>
       </c>
@@ -19710,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -19748,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -19786,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -19824,7 +19832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>496</v>
       </c>
@@ -19862,7 +19870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>497</v>
       </c>
@@ -19900,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>498</v>
       </c>
@@ -19938,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>495</v>
       </c>
@@ -19976,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -20090,7 +20098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>491</v>
       </c>
@@ -20128,7 +20136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>930</v>
       </c>
@@ -20163,7 +20171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -20201,7 +20209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>508</v>
       </c>
@@ -20239,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -20277,7 +20285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -20315,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -20353,7 +20361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>510</v>
       </c>
@@ -20391,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>511</v>
       </c>
@@ -20429,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>512</v>
       </c>
@@ -20467,7 +20475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>509</v>
       </c>
@@ -20505,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20619,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>505</v>
       </c>
@@ -20657,7 +20665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>931</v>
       </c>
@@ -20692,7 +20700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -20730,7 +20738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>522</v>
       </c>
@@ -20768,7 +20776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20806,7 +20814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20844,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20882,7 +20890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>524</v>
       </c>
@@ -20920,7 +20928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>525</v>
       </c>
@@ -20958,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>523</v>
       </c>
@@ -20996,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -21110,7 +21118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>519</v>
       </c>
@@ -21148,7 +21156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>932</v>
       </c>
@@ -21183,7 +21191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -21221,7 +21229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>535</v>
       </c>
@@ -21259,7 +21267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -21297,7 +21305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -21335,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -21373,7 +21381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>537</v>
       </c>
@@ -21411,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>538</v>
       </c>
@@ -21449,7 +21457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>536</v>
       </c>
@@ -21487,7 +21495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -21601,7 +21609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>532</v>
       </c>
@@ -21639,7 +21647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>933</v>
       </c>
@@ -21674,7 +21682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -21712,7 +21720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>548</v>
       </c>
@@ -21750,7 +21758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -21788,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -21826,7 +21834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -21864,7 +21872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>550</v>
       </c>
@@ -21902,7 +21910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>551</v>
       </c>
@@ -21940,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>549</v>
       </c>
@@ -21978,7 +21986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -22092,7 +22100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>545</v>
       </c>
@@ -22130,7 +22138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>934</v>
       </c>
@@ -22165,7 +22173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -22203,7 +22211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>561</v>
       </c>
@@ -22241,7 +22249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -22279,7 +22287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -22317,7 +22325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -22355,7 +22363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>563</v>
       </c>
@@ -22393,7 +22401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>564</v>
       </c>
@@ -22431,7 +22439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>562</v>
       </c>
@@ -22469,7 +22477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -22583,7 +22591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>558</v>
       </c>
@@ -22621,7 +22629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>935</v>
       </c>
@@ -22656,7 +22664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -22694,7 +22702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>574</v>
       </c>
@@ -22732,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -22770,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -22808,7 +22816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -22846,7 +22854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>576</v>
       </c>
@@ -22884,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>577</v>
       </c>
@@ -22922,7 +22930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>575</v>
       </c>
@@ -22960,7 +22968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -23074,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>571</v>
       </c>
@@ -23112,7 +23120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>936</v>
       </c>
@@ -23147,7 +23155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -23185,7 +23193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>587</v>
       </c>
@@ -23223,7 +23231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -23261,7 +23269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -23299,7 +23307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -23337,7 +23345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>589</v>
       </c>
@@ -23375,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>590</v>
       </c>
@@ -23413,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>588</v>
       </c>
@@ -23451,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -23565,7 +23573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>584</v>
       </c>
@@ -23603,7 +23611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>937</v>
       </c>
@@ -23638,7 +23646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -23676,7 +23684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>600</v>
       </c>
@@ -23714,7 +23722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -23752,7 +23760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -23790,7 +23798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -23828,7 +23836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>602</v>
       </c>
@@ -23866,7 +23874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>603</v>
       </c>
@@ -23904,7 +23912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>601</v>
       </c>
@@ -23942,7 +23950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -24056,7 +24064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>597</v>
       </c>
@@ -24094,7 +24102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>938</v>
       </c>
@@ -24129,7 +24137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -24167,7 +24175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>613</v>
       </c>
@@ -24205,7 +24213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -24243,7 +24251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -24281,7 +24289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -24319,7 +24327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>615</v>
       </c>
@@ -24357,7 +24365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>616</v>
       </c>
@@ -24395,7 +24403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>617</v>
       </c>
@@ -24433,7 +24441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>614</v>
       </c>
@@ -24471,7 +24479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -24585,7 +24593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>610</v>
       </c>
@@ -24623,7 +24631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>939</v>
       </c>
@@ -24658,7 +24666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -24696,7 +24704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>627</v>
       </c>
@@ -24734,7 +24742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -24772,7 +24780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -24810,7 +24818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -24848,7 +24856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>629</v>
       </c>
@@ -24886,7 +24894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>630</v>
       </c>
@@ -24924,7 +24932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>631</v>
       </c>
@@ -24962,7 +24970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>628</v>
       </c>
@@ -25000,7 +25008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -25114,7 +25122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>624</v>
       </c>
@@ -25152,7 +25160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>940</v>
       </c>
@@ -25187,7 +25195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -25225,7 +25233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>643</v>
       </c>
@@ -25263,7 +25271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -25301,7 +25309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -25339,7 +25347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -25377,7 +25385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -25415,7 +25423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>645</v>
       </c>
@@ -25453,7 +25461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>646</v>
       </c>
@@ -25491,7 +25499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>647</v>
       </c>
@@ -25529,7 +25537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>644</v>
       </c>
@@ -25567,7 +25575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -25719,7 +25727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>640</v>
       </c>
@@ -25757,7 +25765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>941</v>
       </c>
@@ -25792,7 +25800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -25830,7 +25838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>657</v>
       </c>
@@ -25868,7 +25876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -25906,7 +25914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -25944,7 +25952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -25982,7 +25990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>659</v>
       </c>
@@ -26020,7 +26028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>660</v>
       </c>
@@ -26058,7 +26066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>661</v>
       </c>
@@ -26096,7 +26104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>658</v>
       </c>
@@ -26134,7 +26142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -26248,7 +26256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>654</v>
       </c>
@@ -26286,7 +26294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>942</v>
       </c>
@@ -26321,7 +26329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -26359,7 +26367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>671</v>
       </c>
@@ -26397,7 +26405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -26435,7 +26443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -26473,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -26511,7 +26519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>673</v>
       </c>
@@ -26549,7 +26557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>674</v>
       </c>
@@ -26587,7 +26595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>675</v>
       </c>
@@ -26625,7 +26633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>672</v>
       </c>
@@ -26663,7 +26671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -26777,7 +26785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>668</v>
       </c>
@@ -26815,7 +26823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>943</v>
       </c>
@@ -26850,7 +26858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -26888,7 +26896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>685</v>
       </c>
@@ -26926,7 +26934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -26964,7 +26972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -27002,7 +27010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -27040,7 +27048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>687</v>
       </c>
@@ -27078,7 +27086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>688</v>
       </c>
@@ -27116,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>689</v>
       </c>
@@ -27154,7 +27162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>686</v>
       </c>
@@ -27192,7 +27200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -27306,7 +27314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>682</v>
       </c>
@@ -27344,7 +27352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>944</v>
       </c>
@@ -27379,7 +27387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -27417,7 +27425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>699</v>
       </c>
@@ -27455,7 +27463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -27493,7 +27501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -27531,7 +27539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -27569,7 +27577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>701</v>
       </c>
@@ -27607,7 +27615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>702</v>
       </c>
@@ -27645,7 +27653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>703</v>
       </c>
@@ -27683,7 +27691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>700</v>
       </c>
@@ -27721,7 +27729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -27835,7 +27843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>696</v>
       </c>
@@ -27873,7 +27881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>945</v>
       </c>
@@ -27908,7 +27916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -27946,7 +27954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>713</v>
       </c>
@@ -27984,7 +27992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -28022,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -28060,7 +28068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -28098,7 +28106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>715</v>
       </c>
@@ -28136,7 +28144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>716</v>
       </c>
@@ -28174,7 +28182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>717</v>
       </c>
@@ -28212,7 +28220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>714</v>
       </c>
@@ -28250,7 +28258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -28364,7 +28372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>710</v>
       </c>
@@ -28402,7 +28410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>946</v>
       </c>
@@ -28437,7 +28445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -28475,7 +28483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>727</v>
       </c>
@@ -28513,7 +28521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -28551,7 +28559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -28589,7 +28597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -28627,7 +28635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>729</v>
       </c>
@@ -28665,7 +28673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>730</v>
       </c>
@@ -28703,7 +28711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>731</v>
       </c>
@@ -28741,7 +28749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>728</v>
       </c>
@@ -28779,7 +28787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -28893,7 +28901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>724</v>
       </c>
@@ -28931,7 +28939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>947</v>
       </c>
@@ -28966,7 +28974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -29004,7 +29012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>741</v>
       </c>
@@ -29042,7 +29050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -29080,7 +29088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -29118,7 +29126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -29156,7 +29164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>743</v>
       </c>
@@ -29194,7 +29202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>744</v>
       </c>
@@ -29232,7 +29240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>745</v>
       </c>
@@ -29270,7 +29278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>742</v>
       </c>
@@ -29308,7 +29316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -29422,7 +29430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>738</v>
       </c>
@@ -29460,7 +29468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>948</v>
       </c>
@@ -29495,7 +29503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -29533,7 +29541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>756</v>
       </c>
@@ -29571,7 +29579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -29609,7 +29617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -29647,7 +29655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -29685,7 +29693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>758</v>
       </c>
@@ -29723,7 +29731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>759</v>
       </c>
@@ -29761,7 +29769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>760</v>
       </c>
@@ -29799,7 +29807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>757</v>
       </c>
@@ -29837,7 +29845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -29989,7 +29997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>753</v>
       </c>
@@ -30027,7 +30035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>949</v>
       </c>
@@ -30062,7 +30070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -30100,7 +30108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>771</v>
       </c>
@@ -30138,7 +30146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -30176,7 +30184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -30214,7 +30222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -30252,7 +30260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>773</v>
       </c>
@@ -30290,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>774</v>
       </c>
@@ -30328,7 +30336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>775</v>
       </c>
@@ -30366,7 +30374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>772</v>
       </c>
@@ -30404,7 +30412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -30556,7 +30564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>768</v>
       </c>
@@ -30594,7 +30602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>950</v>
       </c>
@@ -30629,7 +30637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -30667,7 +30675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>786</v>
       </c>
@@ -30705,7 +30713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -30743,7 +30751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -30781,7 +30789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -30819,7 +30827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>788</v>
       </c>
@@ -30857,7 +30865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>789</v>
       </c>
@@ -30895,7 +30903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>790</v>
       </c>
@@ -30933,7 +30941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>787</v>
       </c>
@@ -30971,7 +30979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -31123,7 +31131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>783</v>
       </c>
@@ -31161,7 +31169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>951</v>
       </c>
@@ -31196,7 +31204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -31234,7 +31242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>801</v>
       </c>
@@ -31272,7 +31280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -31310,7 +31318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -31348,7 +31356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -31386,7 +31394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>803</v>
       </c>
@@ -31424,7 +31432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>804</v>
       </c>
@@ -31462,7 +31470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>805</v>
       </c>
@@ -31500,7 +31508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>802</v>
       </c>
@@ -31538,7 +31546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -31690,7 +31698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>798</v>
       </c>
@@ -31728,7 +31736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>952</v>
       </c>
@@ -31763,7 +31771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -31801,7 +31809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>816</v>
       </c>
@@ -31839,7 +31847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -31877,7 +31885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -31915,7 +31923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -31953,7 +31961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>818</v>
       </c>
@@ -31991,7 +31999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>819</v>
       </c>
@@ -32029,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>820</v>
       </c>
@@ -32067,7 +32075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>817</v>
       </c>
@@ -32105,7 +32113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -32257,7 +32265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>813</v>
       </c>
@@ -32295,7 +32303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>953</v>
       </c>
@@ -32330,7 +32338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -32368,7 +32376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>831</v>
       </c>
@@ -32406,7 +32414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -32444,7 +32452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -32482,7 +32490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -32520,7 +32528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>833</v>
       </c>
@@ -32558,7 +32566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>834</v>
       </c>
@@ -32596,7 +32604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>835</v>
       </c>
@@ -32634,7 +32642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>832</v>
       </c>
@@ -32672,7 +32680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -32824,7 +32832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>828</v>
       </c>
@@ -32862,7 +32870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>954</v>
       </c>
@@ -32897,7 +32905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -32935,7 +32943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>846</v>
       </c>
@@ -32973,7 +32981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -33011,7 +33019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -33049,7 +33057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -33087,7 +33095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>848</v>
       </c>
@@ -33125,7 +33133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>849</v>
       </c>
@@ -33163,7 +33171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>850</v>
       </c>
@@ -33201,7 +33209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>847</v>
       </c>
@@ -33239,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -33391,7 +33399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>843</v>
       </c>
@@ -33429,7 +33437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>955</v>
       </c>
@@ -33464,7 +33472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -33502,7 +33510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>861</v>
       </c>
@@ -33540,7 +33548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -33578,7 +33586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -33616,7 +33624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -33654,7 +33662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>863</v>
       </c>
@@ -33692,7 +33700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>864</v>
       </c>
@@ -33730,7 +33738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>865</v>
       </c>
@@ -33768,7 +33776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>862</v>
       </c>
@@ -33806,7 +33814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -33958,7 +33966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>858</v>
       </c>
@@ -33996,7 +34004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>956</v>
       </c>
@@ -34031,7 +34039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="867" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -34069,7 +34077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>876</v>
       </c>
@@ -34107,7 +34115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -34145,7 +34153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -34183,7 +34191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -34221,7 +34229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>878</v>
       </c>
@@ -34259,7 +34267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>879</v>
       </c>
@@ -34297,7 +34305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>880</v>
       </c>
@@ -34335,7 +34343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>877</v>
       </c>
@@ -34373,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -34525,7 +34533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>873</v>
       </c>
@@ -34563,7 +34571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>957</v>
       </c>
@@ -34598,7 +34606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="882" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -34636,7 +34644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>890</v>
       </c>
@@ -34674,7 +34682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -34712,7 +34720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -34750,7 +34758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -34788,7 +34796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>892</v>
       </c>
@@ -34826,7 +34834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>893</v>
       </c>
@@ -34864,7 +34872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>894</v>
       </c>
@@ -34902,7 +34910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>891</v>
       </c>
@@ -34940,7 +34948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>889</v>
       </c>
@@ -35054,7 +35062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>887</v>
       </c>
@@ -35092,7 +35100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>958</v>
       </c>
@@ -35128,13 +35136,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L895" xr:uid="{96269EE9-111C-4E82-A20B-C9AA298F15E1}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="to_desc"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L895" xr:uid="{96269EE9-111C-4E82-A20B-C9AA298F15E1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L895">
     <sortCondition ref="G2:G895"/>
     <sortCondition ref="K2:K895"/>
